--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -136,47 +136,47 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
+        <t>Model number of the outdoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Model number of the indoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
+        <t>Type of refrigerant</t>
       </text>
     </comment>
     <comment authorId="0" ref="B22" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B25" shapeId="0">
       <text>
         <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A27" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -569,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +760,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -768,23 +768,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -796,19 +800,15 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">            indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_manufacturer</t>
+          <t xml:space="preserve">            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -816,7 +816,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_model_number</t>
+          <t xml:space="preserve">            refrigerant_type</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -824,23 +824,27 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
+          <t xml:space="preserve">            compressor_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                compressor_type</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance</t>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        compressor_control_method</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -852,7 +856,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">            compressor_control_method</t>
+          <t xml:space="preserve">        cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -862,9 +866,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            cycling_degradation_coefficient</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -876,32 +885,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -913,12 +905,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -944,7 +936,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1065,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,24 +29,57 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font/>
     <font>
+      <b val="1"/>
       <color rgb="000070C0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808B96"/>
+        <bgColor rgb="00808B96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000529B"/>
+        <bgColor rgb="0000529B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001AED8"/>
+        <bgColor rgb="0001AED8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,27 +87,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Heading" xfId="2"/>
+    <cellStyle hidden="0" name="Schema" xfId="3"/>
+    <cellStyle hidden="0" name="Value" xfId="4"/>
+    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -86,97 +147,117 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>ASHRAE 205 schema version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Representation specification identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>Unique equipment identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B8" shapeId="0">
       <text>
-        <t>Unique equipment identifier</t>
+        <t>Date of publication</t>
       </text>
     </comment>
     <comment authorId="0" ref="B9" shapeId="0">
       <text>
-        <t>Date of publication</t>
+        <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
-        <t>Integer version identifier for the data in the representation</t>
+        <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>Free-form identification of the source of this data</t>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B12" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
-      <text>
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A14" shapeId="0">
+      <text>
+        <t>Data group describing product and rating information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B17" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
+        <t>Model number of the outdoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Model number of the indoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
+        <t>Type of refrigerant used</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment authorId="0" ref="A22" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Method used to control different speeds of the compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A26" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -569,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,323 +658,480 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="50"/>
-    <col customWidth="1" max="3" min="3" width="31"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RS0004: Air-to-Air Direct Expansion Refrigerant Coil System</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Data Group</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Data Element</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASHRAE205</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>standard_version</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>RS0004</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RS0004</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>data_timestamp</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-    </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.product_information</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            outdoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        outdoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        indoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        refrigerant_type</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        compressor_type</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            indoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            indoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            refrigerant_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_type</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
-    </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    compressor_control_method</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        compressor_control_method</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -901,19 +1139,23 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -925,122 +1167,938 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>outdoor_coil_entering_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_entering_relative_humidity</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_entering_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_air_mass_flow_rate</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>compressor_sequence_number</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>ambient_absolute_air_pressure</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>gross_total_cooling_capacity</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>gross_sensible_cooling_capacity</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>gross_cooling_power</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>kg/s</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="5" t="n"/>
+      <c r="I16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="5" t="n"/>
+      <c r="I17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="5" t="n"/>
+      <c r="I26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
+      <c r="I27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+      <c r="H29" s="5" t="n"/>
+      <c r="I29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+      <c r="H30" s="5" t="n"/>
+      <c r="I30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+      <c r="H31" s="5" t="n"/>
+      <c r="I31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="5" t="n"/>
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="5" t="n"/>
+      <c r="I34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="5" t="n"/>
+      <c r="F35" s="5" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="5" t="n"/>
+      <c r="E36" s="5" t="n"/>
+      <c r="F36" s="5" t="n"/>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="5" t="n"/>
+      <c r="I36" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n"/>
+      <c r="B37" s="5" t="n"/>
+      <c r="C37" s="5" t="n"/>
+      <c r="D37" s="5" t="n"/>
+      <c r="E37" s="5" t="n"/>
+      <c r="F37" s="5" t="n"/>
+      <c r="G37" s="5" t="n"/>
+      <c r="H37" s="5" t="n"/>
+      <c r="I37" s="5" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="5" t="n"/>
+      <c r="D38" s="5" t="n"/>
+      <c r="E38" s="5" t="n"/>
+      <c r="F38" s="5" t="n"/>
+      <c r="G38" s="5" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="5" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="5" t="n"/>
+      <c r="D39" s="5" t="n"/>
+      <c r="E39" s="5" t="n"/>
+      <c r="F39" s="5" t="n"/>
+      <c r="G39" s="5" t="n"/>
+      <c r="H39" s="5" t="n"/>
+      <c r="I39" s="5" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n"/>
+      <c r="B40" s="5" t="n"/>
+      <c r="C40" s="5" t="n"/>
+      <c r="D40" s="5" t="n"/>
+      <c r="E40" s="5" t="n"/>
+      <c r="F40" s="5" t="n"/>
+      <c r="G40" s="5" t="n"/>
+      <c r="H40" s="5" t="n"/>
+      <c r="I40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="5" t="n"/>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="5" t="n"/>
+      <c r="H41" s="5" t="n"/>
+      <c r="I41" s="5" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="5" t="n"/>
+      <c r="D42" s="5" t="n"/>
+      <c r="E42" s="5" t="n"/>
+      <c r="F42" s="5" t="n"/>
+      <c r="G42" s="5" t="n"/>
+      <c r="H42" s="5" t="n"/>
+      <c r="I42" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="5" t="n"/>
+      <c r="D43" s="5" t="n"/>
+      <c r="E43" s="5" t="n"/>
+      <c r="F43" s="5" t="n"/>
+      <c r="G43" s="5" t="n"/>
+      <c r="H43" s="5" t="n"/>
+      <c r="I43" s="5" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n"/>
+      <c r="B44" s="5" t="n"/>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="5" t="n"/>
+      <c r="E44" s="5" t="n"/>
+      <c r="F44" s="5" t="n"/>
+      <c r="G44" s="5" t="n"/>
+      <c r="H44" s="5" t="n"/>
+      <c r="I44" s="5" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="5" t="n"/>
+      <c r="D45" s="5" t="n"/>
+      <c r="E45" s="5" t="n"/>
+      <c r="F45" s="5" t="n"/>
+      <c r="G45" s="5" t="n"/>
+      <c r="H45" s="5" t="n"/>
+      <c r="I45" s="5" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n"/>
+      <c r="B46" s="5" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="5" t="n"/>
+      <c r="E46" s="5" t="n"/>
+      <c r="F46" s="5" t="n"/>
+      <c r="G46" s="5" t="n"/>
+      <c r="H46" s="5" t="n"/>
+      <c r="I46" s="5" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="5" t="n"/>
+      <c r="E47" s="5" t="n"/>
+      <c r="F47" s="5" t="n"/>
+      <c r="G47" s="5" t="n"/>
+      <c r="H47" s="5" t="n"/>
+      <c r="I47" s="5" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n"/>
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="5" t="n"/>
+      <c r="E48" s="5" t="n"/>
+      <c r="F48" s="5" t="n"/>
+      <c r="G48" s="5" t="n"/>
+      <c r="H48" s="5" t="n"/>
+      <c r="I48" s="5" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n"/>
+      <c r="B49" s="5" t="n"/>
+      <c r="C49" s="5" t="n"/>
+      <c r="D49" s="5" t="n"/>
+      <c r="E49" s="5" t="n"/>
+      <c r="F49" s="5" t="n"/>
+      <c r="G49" s="5" t="n"/>
+      <c r="H49" s="5" t="n"/>
+      <c r="I49" s="5" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="5" t="n"/>
+      <c r="D50" s="5" t="n"/>
+      <c r="E50" s="5" t="n"/>
+      <c r="F50" s="5" t="n"/>
+      <c r="G50" s="5" t="n"/>
+      <c r="H50" s="5" t="n"/>
+      <c r="I50" s="5" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n"/>
+      <c r="B51" s="5" t="n"/>
+      <c r="C51" s="5" t="n"/>
+      <c r="D51" s="5" t="n"/>
+      <c r="E51" s="5" t="n"/>
+      <c r="F51" s="5" t="n"/>
+      <c r="G51" s="5" t="n"/>
+      <c r="H51" s="5" t="n"/>
+      <c r="I51" s="5" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n"/>
+      <c r="B52" s="5" t="n"/>
+      <c r="C52" s="5" t="n"/>
+      <c r="D52" s="5" t="n"/>
+      <c r="E52" s="5" t="n"/>
+      <c r="F52" s="5" t="n"/>
+      <c r="G52" s="5" t="n"/>
+      <c r="H52" s="5" t="n"/>
+      <c r="I52" s="5" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n"/>
+      <c r="B53" s="5" t="n"/>
+      <c r="C53" s="5" t="n"/>
+      <c r="D53" s="5" t="n"/>
+      <c r="E53" s="5" t="n"/>
+      <c r="F53" s="5" t="n"/>
+      <c r="G53" s="5" t="n"/>
+      <c r="H53" s="5" t="n"/>
+      <c r="I53" s="5" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
+      <c r="C54" s="5" t="n"/>
+      <c r="D54" s="5" t="n"/>
+      <c r="E54" s="5" t="n"/>
+      <c r="F54" s="5" t="n"/>
+      <c r="G54" s="5" t="n"/>
+      <c r="H54" s="5" t="n"/>
+      <c r="I54" s="5" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n"/>
+      <c r="B55" s="5" t="n"/>
+      <c r="C55" s="5" t="n"/>
+      <c r="D55" s="5" t="n"/>
+      <c r="E55" s="5" t="n"/>
+      <c r="F55" s="5" t="n"/>
+      <c r="G55" s="5" t="n"/>
+      <c r="H55" s="5" t="n"/>
+      <c r="I55" s="5" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="5" t="n"/>
+      <c r="E56" s="5" t="n"/>
+      <c r="F56" s="5" t="n"/>
+      <c r="G56" s="5" t="n"/>
+      <c r="H56" s="5" t="n"/>
+      <c r="I56" s="5" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="5" t="n"/>
+      <c r="C57" s="5" t="n"/>
+      <c r="D57" s="5" t="n"/>
+      <c r="E57" s="5" t="n"/>
+      <c r="F57" s="5" t="n"/>
+      <c r="G57" s="5" t="n"/>
+      <c r="H57" s="5" t="n"/>
+      <c r="I57" s="5" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
+      <c r="C58" s="5" t="n"/>
+      <c r="D58" s="5" t="n"/>
+      <c r="E58" s="5" t="n"/>
+      <c r="F58" s="5" t="n"/>
+      <c r="G58" s="5" t="n"/>
+      <c r="H58" s="5" t="n"/>
+      <c r="I58" s="5" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="5" t="n"/>
+      <c r="C59" s="5" t="n"/>
+      <c r="D59" s="5" t="n"/>
+      <c r="E59" s="5" t="n"/>
+      <c r="F59" s="5" t="n"/>
+      <c r="G59" s="5" t="n"/>
+      <c r="H59" s="5" t="n"/>
+      <c r="I59" s="5" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
+      <c r="C60" s="5" t="n"/>
+      <c r="D60" s="5" t="n"/>
+      <c r="E60" s="5" t="n"/>
+      <c r="F60" s="5" t="n"/>
+      <c r="G60" s="5" t="n"/>
+      <c r="H60" s="5" t="n"/>
+      <c r="I60" s="5" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n"/>
+      <c r="B61" s="5" t="n"/>
+      <c r="C61" s="5" t="n"/>
+      <c r="D61" s="5" t="n"/>
+      <c r="E61" s="5" t="n"/>
+      <c r="F61" s="5" t="n"/>
+      <c r="G61" s="5" t="n"/>
+      <c r="H61" s="5" t="n"/>
+      <c r="I61" s="5" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n"/>
+      <c r="B62" s="5" t="n"/>
+      <c r="C62" s="5" t="n"/>
+      <c r="D62" s="5" t="n"/>
+      <c r="E62" s="5" t="n"/>
+      <c r="F62" s="5" t="n"/>
+      <c r="G62" s="5" t="n"/>
+      <c r="H62" s="5" t="n"/>
+      <c r="I62" s="5" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n"/>
+      <c r="B63" s="5" t="n"/>
+      <c r="C63" s="5" t="n"/>
+      <c r="D63" s="5" t="n"/>
+      <c r="E63" s="5" t="n"/>
+      <c r="F63" s="5" t="n"/>
+      <c r="G63" s="5" t="n"/>
+      <c r="H63" s="5" t="n"/>
+      <c r="I63" s="5" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n"/>
+      <c r="B64" s="5" t="n"/>
+      <c r="C64" s="5" t="n"/>
+      <c r="D64" s="5" t="n"/>
+      <c r="E64" s="5" t="n"/>
+      <c r="F64" s="5" t="n"/>
+      <c r="G64" s="5" t="n"/>
+      <c r="H64" s="5" t="n"/>
+      <c r="I64" s="5" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n"/>
+      <c r="B65" s="5" t="n"/>
+      <c r="C65" s="5" t="n"/>
+      <c r="D65" s="5" t="n"/>
+      <c r="E65" s="5" t="n"/>
+      <c r="F65" s="5" t="n"/>
+      <c r="G65" s="5" t="n"/>
+      <c r="H65" s="5" t="n"/>
+      <c r="I65" s="5" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="n"/>
+      <c r="B66" s="5" t="n"/>
+      <c r="C66" s="5" t="n"/>
+      <c r="D66" s="5" t="n"/>
+      <c r="E66" s="5" t="n"/>
+      <c r="F66" s="5" t="n"/>
+      <c r="G66" s="5" t="n"/>
+      <c r="H66" s="5" t="n"/>
+      <c r="I66" s="5" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="5" t="n"/>
+      <c r="C67" s="5" t="n"/>
+      <c r="D67" s="5" t="n"/>
+      <c r="E67" s="5" t="n"/>
+      <c r="F67" s="5" t="n"/>
+      <c r="G67" s="5" t="n"/>
+      <c r="H67" s="5" t="n"/>
+      <c r="I67" s="5" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="n"/>
+      <c r="B68" s="5" t="n"/>
+      <c r="C68" s="5" t="n"/>
+      <c r="D68" s="5" t="n"/>
+      <c r="E68" s="5" t="n"/>
+      <c r="F68" s="5" t="n"/>
+      <c r="G68" s="5" t="n"/>
+      <c r="H68" s="5" t="n"/>
+      <c r="I68" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1054,56 +2112,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>outdoor_coil_environment_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>gross_power</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0004" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,6 +87,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -100,44 +101,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -147,117 +215,122 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Model number of the outdoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
-      <text>
-        <t>Name of the indoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Model number of the indoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Type of refrigerant used</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Outdoor unit manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Outdoor unit model number</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Indoor unit manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Indoor unit model number</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <t>Refrigerant used</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A22" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>Method used to control different speeds of the compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A25" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A26" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -272,57 +345,57 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for cooling performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the lookup variables for cooling performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air entering the outdoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Relative humidity of the air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Mass flow rate of air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Ambient absolute air pressure</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Total heat removed by the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Sensible heat removed by the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
       </text>
@@ -337,22 +410,22 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
-      <text>
-        <t>Data group defining the grid variables for standby performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for standby performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air in the environment of the outdoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
       </text>
@@ -658,58 +731,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,12 +871,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
@@ -816,14 +889,10 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -835,14 +904,10 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>RS0004</t>
-        </is>
-      </c>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -854,10 +919,14 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n"/>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -869,7 +938,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -884,7 +953,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -899,7 +968,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t>data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -914,18 +983,22 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
+          <t>data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -936,7 +1009,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -944,24 +1017,20 @@
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
       <c r="C13" s="5" t="n"/>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -972,7 +1041,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -984,37 +1053,29 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">    outdoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="n"/>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        outdoor_unit_model_number</t>
+          <t xml:space="preserve">    outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="n"/>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        indoor_unit_manufacturer</t>
+          <t xml:space="preserve">    indoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C18" s="5" t="n"/>
@@ -1025,7 +1086,7 @@
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        indoor_unit_model_number</t>
+          <t xml:space="preserve">    indoor_unit_model_number</t>
         </is>
       </c>
       <c r="C19" s="5" t="n"/>
@@ -1036,7 +1097,7 @@
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        refrigerant_type</t>
+          <t xml:space="preserve">    refrigerant</t>
         </is>
       </c>
       <c r="C20" s="5" t="n"/>
@@ -1047,7 +1108,7 @@
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        compressor_type</t>
+          <t xml:space="preserve">    compressor_type</t>
         </is>
       </c>
       <c r="C21" s="5" t="n"/>
@@ -1057,7 +1118,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -1073,7 +1134,7 @@
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    compressor_control_method</t>
+          <t>compressor_speed_control_type</t>
         </is>
       </c>
       <c r="C23" s="5" t="n"/>
@@ -1088,11 +1149,15 @@
       <c r="A24" s="4" t="n"/>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C24" s="5" t="n"/>
-      <c r="D24" s="4" t="n"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1102,7 +1167,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
@@ -1121,7 +1186,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B26" s="4" t="n"/>
@@ -1138,25 +1203,22 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="3">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
-      <formula1>"STAGED,DYNAMIC"</formula1>
+    <dataValidation sqref="C23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1"/>
     <hyperlink ref="C26" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1175,64 +1237,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1339,17 +1401,17 @@
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>gross_total_cooling_capacity</t>
+          <t>gross_total_capacity</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>gross_sensible_cooling_capacity</t>
+          <t>gross_sensible_capacity</t>
         </is>
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>gross_cooling_power</t>
+          <t>gross_power</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1436,11 @@
           <t>kg/s</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
           <t>Pa</t>
@@ -2101,7 +2167,7 @@
       <c r="I68" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -2120,64 +2186,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2277,7 +2343,7 @@
       <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -924,7 +924,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -322,7 +322,7 @@
     </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 210/240</t>
       </text>
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
@@ -788,7 +788,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS0004: Air-to-Air Direct Expansion Refrigerant Coil System</t>
+          <t>RS0004: Air-to-Air Direct Expansion Refrigerant System</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0004-template.a205.xlsx
+++ b/assets/templates/RS0004-template.a205.xlsx
@@ -327,10 +327,25 @@
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -398,6 +413,11 @@
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -723,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:AZ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,7 +944,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1167,36 +1187,77 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
           <t>performance.performance_map_cooling</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>$performance_map_cooling</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>performance.performance_map_standby</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1204,19 +1265,19 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="C26" r:id="rId2"/>
+    <hyperlink ref="C28" r:id="rId1"/>
+    <hyperlink ref="C29" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1367,6 +1428,7 @@
       </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1414,6 +1476,11 @@
           <t>gross_power</t>
         </is>
       </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1459,6 +1526,11 @@
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t>W</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1472,6 +1544,7 @@
       <c r="G5" s="5" t="n"/>
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
@@ -1483,6 +1556,7 @@
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
@@ -1494,6 +1568,7 @@
       <c r="G7" s="5" t="n"/>
       <c r="H7" s="5" t="n"/>
       <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
@@ -1505,6 +1580,7 @@
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="5" t="n"/>
       <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
@@ -1516,6 +1592,7 @@
       <c r="G9" s="5" t="n"/>
       <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
@@ -1527,6 +1604,7 @@
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="5" t="n"/>
       <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
@@ -1538,6 +1616,7 @@
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
       <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
@@ -1549,6 +1628,7 @@
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="5" t="n"/>
       <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -1560,6 +1640,7 @@
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
       <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
@@ -1571,6 +1652,7 @@
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
       <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -1582,6 +1664,7 @@
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
       <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
@@ -1593,6 +1676,7 @@
       <c r="G16" s="5" t="n"/>
       <c r="H16" s="5" t="n"/>
       <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
@@ -1604,6 +1688,7 @@
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
       <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
@@ -1615,6 +1700,7 @@
       <c r="G18" s="5" t="n"/>
       <c r="H18" s="5" t="n"/>
       <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
@@ -1626,6 +1712,7 @@
       <c r="G19" s="5" t="n"/>
       <c r="H19" s="5" t="n"/>
       <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
@@ -1637,6 +1724,7 @@
       <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
@@ -1648,6 +1736,7 @@
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
@@ -1659,6 +1748,7 @@
       <c r="G22" s="5" t="n"/>
       <c r="H22" s="5" t="n"/>
       <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
@@ -1670,6 +1760,7 @@
       <c r="G23" s="5" t="n"/>
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="5" t="n"/>
+      <c r="J23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -1681,6 +1772,7 @@
       <c r="G24" s="5" t="n"/>
       <c r="H24" s="5" t="n"/>
       <c r="I24" s="5" t="n"/>
+      <c r="J24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
@@ -1692,6 +1784,7 @@
       <c r="G25" s="5" t="n"/>
       <c r="H25" s="5" t="n"/>
       <c r="I25" s="5" t="n"/>
+      <c r="J25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
@@ -1703,6 +1796,7 @@
       <c r="G26" s="5" t="n"/>
       <c r="H26" s="5" t="n"/>
       <c r="I26" s="5" t="n"/>
+      <c r="J26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
@@ -1714,6 +1808,7 @@
       <c r="G27" s="5" t="n"/>
       <c r="H27" s="5" t="n"/>
       <c r="I27" s="5" t="n"/>
+      <c r="J27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
@@ -1725,6 +1820,7 @@
       <c r="G28" s="5" t="n"/>
       <c r="H28" s="5" t="n"/>
       <c r="I28" s="5" t="n"/>
+      <c r="J28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
@@ -1736,6 +1832,7 @@
       <c r="G29" s="5" t="n"/>
       <c r="H29" s="5" t="n"/>
       <c r="I29" s="5" t="n"/>
+      <c r="J29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
@@ -1747,6 +1844,7 @@
       <c r="G30" s="5" t="n"/>
       <c r="H30" s="5" t="n"/>
       <c r="I30" s="5" t="n"/>
+      <c r="J30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
@@ -1758,6 +1856,7 @@
       <c r="G31" s="5" t="n"/>
       <c r="H31" s="5" t="n"/>
       <c r="I31" s="5" t="n"/>
+      <c r="J31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
@@ -1769,6 +1868,7 @@
       <c r="G32" s="5" t="n"/>
       <c r="H32" s="5" t="n"/>
       <c r="I32" s="5" t="n"/>
+      <c r="J32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
@@ -1780,6 +1880,7 @@
       <c r="G33" s="5" t="n"/>
       <c r="H33" s="5" t="n"/>
       <c r="I33" s="5" t="n"/>
+      <c r="J33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
@@ -1791,6 +1892,7 @@
       <c r="G34" s="5" t="n"/>
       <c r="H34" s="5" t="n"/>
       <c r="I34" s="5" t="n"/>
+      <c r="J34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
@@ -1802,6 +1904,7 @@
       <c r="G35" s="5" t="n"/>
       <c r="H35" s="5" t="n"/>
       <c r="I35" s="5" t="n"/>
+      <c r="J35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
@@ -1813,6 +1916,7 @@
       <c r="G36" s="5" t="n"/>
       <c r="H36" s="5" t="n"/>
       <c r="I36" s="5" t="n"/>
+      <c r="J36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n"/>
@@ -1824,6 +1928,7 @@
       <c r="G37" s="5" t="n"/>
       <c r="H37" s="5" t="n"/>
       <c r="I37" s="5" t="n"/>
+      <c r="J37" s="5" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n"/>
@@ -1835,6 +1940,7 @@
       <c r="G38" s="5" t="n"/>
       <c r="H38" s="5" t="n"/>
       <c r="I38" s="5" t="n"/>
+      <c r="J38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n"/>
@@ -1846,6 +1952,7 @@
       <c r="G39" s="5" t="n"/>
       <c r="H39" s="5" t="n"/>
       <c r="I39" s="5" t="n"/>
+      <c r="J39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
@@ -1857,6 +1964,7 @@
       <c r="G40" s="5" t="n"/>
       <c r="H40" s="5" t="n"/>
       <c r="I40" s="5" t="n"/>
+      <c r="J40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n"/>
@@ -1868,6 +1976,7 @@
       <c r="G41" s="5" t="n"/>
       <c r="H41" s="5" t="n"/>
       <c r="I41" s="5" t="n"/>
+      <c r="J41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n"/>
@@ -1879,6 +1988,7 @@
       <c r="G42" s="5" t="n"/>
       <c r="H42" s="5" t="n"/>
       <c r="I42" s="5" t="n"/>
+      <c r="J42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
@@ -1890,6 +2000,7 @@
       <c r="G43" s="5" t="n"/>
       <c r="H43" s="5" t="n"/>
       <c r="I43" s="5" t="n"/>
+      <c r="J43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n"/>
@@ -1901,6 +2012,7 @@
       <c r="G44" s="5" t="n"/>
       <c r="H44" s="5" t="n"/>
       <c r="I44" s="5" t="n"/>
+      <c r="J44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n"/>
@@ -1912,6 +2024,7 @@
       <c r="G45" s="5" t="n"/>
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="n"/>
+      <c r="J45" s="5" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n"/>
@@ -1923,6 +2036,7 @@
       <c r="G46" s="5" t="n"/>
       <c r="H46" s="5" t="n"/>
       <c r="I46" s="5" t="n"/>
+      <c r="J46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
@@ -1934,6 +2048,7 @@
       <c r="G47" s="5" t="n"/>
       <c r="H47" s="5" t="n"/>
       <c r="I47" s="5" t="n"/>
+      <c r="J47" s="5" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n"/>
@@ -1945,6 +2060,7 @@
       <c r="G48" s="5" t="n"/>
       <c r="H48" s="5" t="n"/>
       <c r="I48" s="5" t="n"/>
+      <c r="J48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n"/>
@@ -1956,6 +2072,7 @@
       <c r="G49" s="5" t="n"/>
       <c r="H49" s="5" t="n"/>
       <c r="I49" s="5" t="n"/>
+      <c r="J49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n"/>
@@ -1967,6 +2084,7 @@
       <c r="G50" s="5" t="n"/>
       <c r="H50" s="5" t="n"/>
       <c r="I50" s="5" t="n"/>
+      <c r="J50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n"/>
@@ -1978,6 +2096,7 @@
       <c r="G51" s="5" t="n"/>
       <c r="H51" s="5" t="n"/>
       <c r="I51" s="5" t="n"/>
+      <c r="J51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n"/>
@@ -1989,6 +2108,7 @@
       <c r="G52" s="5" t="n"/>
       <c r="H52" s="5" t="n"/>
       <c r="I52" s="5" t="n"/>
+      <c r="J52" s="5" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n"/>
@@ -2000,6 +2120,7 @@
       <c r="G53" s="5" t="n"/>
       <c r="H53" s="5" t="n"/>
       <c r="I53" s="5" t="n"/>
+      <c r="J53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n"/>
@@ -2011,6 +2132,7 @@
       <c r="G54" s="5" t="n"/>
       <c r="H54" s="5" t="n"/>
       <c r="I54" s="5" t="n"/>
+      <c r="J54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n"/>
@@ -2022,6 +2144,7 @@
       <c r="G55" s="5" t="n"/>
       <c r="H55" s="5" t="n"/>
       <c r="I55" s="5" t="n"/>
+      <c r="J55" s="5" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n"/>
@@ -2033,6 +2156,7 @@
       <c r="G56" s="5" t="n"/>
       <c r="H56" s="5" t="n"/>
       <c r="I56" s="5" t="n"/>
+      <c r="J56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n"/>
@@ -2044,6 +2168,7 @@
       <c r="G57" s="5" t="n"/>
       <c r="H57" s="5" t="n"/>
       <c r="I57" s="5" t="n"/>
+      <c r="J57" s="5" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n"/>
@@ -2055,6 +2180,7 @@
       <c r="G58" s="5" t="n"/>
       <c r="H58" s="5" t="n"/>
       <c r="I58" s="5" t="n"/>
+      <c r="J58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n"/>
@@ -2066,6 +2192,7 @@
       <c r="G59" s="5" t="n"/>
       <c r="H59" s="5" t="n"/>
       <c r="I59" s="5" t="n"/>
+      <c r="J59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n"/>
@@ -2077,6 +2204,7 @@
       <c r="G60" s="5" t="n"/>
       <c r="H60" s="5" t="n"/>
       <c r="I60" s="5" t="n"/>
+      <c r="J60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n"/>
@@ -2088,6 +2216,7 @@
       <c r="G61" s="5" t="n"/>
       <c r="H61" s="5" t="n"/>
       <c r="I61" s="5" t="n"/>
+      <c r="J61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n"/>
@@ -2099,6 +2228,7 @@
       <c r="G62" s="5" t="n"/>
       <c r="H62" s="5" t="n"/>
       <c r="I62" s="5" t="n"/>
+      <c r="J62" s="5" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n"/>
@@ -2110,6 +2240,7 @@
       <c r="G63" s="5" t="n"/>
       <c r="H63" s="5" t="n"/>
       <c r="I63" s="5" t="n"/>
+      <c r="J63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n"/>
@@ -2121,6 +2252,7 @@
       <c r="G64" s="5" t="n"/>
       <c r="H64" s="5" t="n"/>
       <c r="I64" s="5" t="n"/>
+      <c r="J64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n"/>
@@ -2132,6 +2264,7 @@
       <c r="G65" s="5" t="n"/>
       <c r="H65" s="5" t="n"/>
       <c r="I65" s="5" t="n"/>
+      <c r="J65" s="5" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n"/>
@@ -2143,6 +2276,7 @@
       <c r="G66" s="5" t="n"/>
       <c r="H66" s="5" t="n"/>
       <c r="I66" s="5" t="n"/>
+      <c r="J66" s="5" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n"/>
@@ -2154,6 +2288,7 @@
       <c r="G67" s="5" t="n"/>
       <c r="H67" s="5" t="n"/>
       <c r="I67" s="5" t="n"/>
+      <c r="J67" s="5" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n"/>
@@ -2165,6 +2300,7 @@
       <c r="G68" s="5" t="n"/>
       <c r="H68" s="5" t="n"/>
       <c r="I68" s="5" t="n"/>
+      <c r="J68" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
